--- a/main/results/Unit_Queue.xlsx
+++ b/main/results/Unit_Queue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
   <si>
     <t>building</t>
   </si>
@@ -31,55 +31,43 @@
     <t>Gateway</t>
   </si>
   <si>
-    <t>16</t>
+    <t>19</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Forge</t>
+  </si>
+  <si>
+    <t>Cibernetics Core</t>
+  </si>
+  <si>
+    <t>43, 46</t>
+  </si>
+  <si>
+    <t>85,  129</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Stargate</t>
+  </si>
+  <si>
+    <t>20, 22</t>
+  </si>
+  <si>
+    <t>0,  37</t>
+  </si>
+  <si>
+    <t>20</t>
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>Cibernetics Core</t>
-  </si>
-  <si>
-    <t>46, 43</t>
-  </si>
-  <si>
-    <t>75,  129</t>
-  </si>
-  <si>
-    <t>Forge</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>Stargate</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>Fleet Beacon</t>
-  </si>
-  <si>
-    <t>53</t>
   </si>
 </sst>
 </file>
@@ -411,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,134 +423,137 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
         <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
